--- a/target/classes/customer-testcase.xlsx
+++ b/target/classes/customer-testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chicken/source/assignment/ki2nam3/tester/selenium/demo/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C763D8-BCDC-494B-8D9E-DC13DF1EF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268814E-C351-5F49-93AE-96C6092E5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="3200" windowWidth="27640" windowHeight="16940" xr2:uid="{7AC8D51E-096D-E24F-97A6-0600BE4379BD}"/>
+    <workbookView xWindow="10760" yWindow="3200" windowWidth="27640" windowHeight="16940" xr2:uid="{7AC8D51E-096D-E24F-97A6-0600BE4379BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
   <si>
     <t>male</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>abcdef123456@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
